--- a/fuentes/contenidos/grado09/guion04/Escaleta_ CS_09_04_CO_nueva.xlsx
+++ b/fuentes/contenidos/grado09/guion04/Escaleta_ CS_09_04_CO_nueva.xlsx
@@ -13,12 +13,12 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="237">
   <si>
     <t>Asignatura</t>
   </si>
@@ -712,6 +712,24 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Recursos M aleatorios y diaporama F1</t>
+  </si>
+  <si>
+    <t>Diaporama F1-01</t>
+  </si>
+  <si>
+    <t>RM_01_02_CO</t>
+  </si>
+  <si>
+    <t>Diaporama F1-02</t>
+  </si>
+  <si>
+    <t>Diaporama F1-03</t>
+  </si>
+  <si>
+    <t>Recurso M15A-01</t>
   </si>
 </sst>
 </file>
@@ -922,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -999,16 +1017,19 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,13 +1044,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J28" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1381,94 +1402,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="44" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="4" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -1503,17 +1524,29 @@
       <c r="L3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="M3" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="23"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="U3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="4" spans="1:21" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -1560,19 +1593,19 @@
       <c r="P4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="37">
         <v>6</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1621,19 +1654,19 @@
       <c r="P5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="37">
         <v>6</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="U5" s="45" t="s">
+      <c r="U5" s="37" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1682,19 +1715,19 @@
       <c r="P6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="37">
         <v>6</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T6" s="46" t="s">
+      <c r="T6" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="U6" s="45" t="s">
+      <c r="U6" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1743,19 +1776,19 @@
       <c r="P7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="39">
         <v>6</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="47" t="s">
+      <c r="S7" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1786,11 +1819,11 @@
       <c r="N8" s="23"/>
       <c r="O8" s="26"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="44"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="36"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -1819,11 +1852,11 @@
       <c r="N9" s="13"/>
       <c r="O9" s="15"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="44"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="36"/>
     </row>
     <row r="10" spans="1:21" ht="72" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -1868,19 +1901,19 @@
       <c r="P10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="37">
         <v>6</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="S10" s="45" t="s">
+      <c r="S10" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="T10" s="46" t="s">
+      <c r="T10" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="U10" s="45" t="s">
+      <c r="U10" s="37" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1927,19 +1960,19 @@
       <c r="P11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="37">
         <v>6</v>
       </c>
-      <c r="R11" s="45" t="s">
+      <c r="R11" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T11" s="46" t="s">
+      <c r="T11" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="U11" s="45" t="s">
+      <c r="U11" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1986,19 +2019,19 @@
       <c r="P12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="37">
         <v>6</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="R12" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S12" s="45" t="s">
+      <c r="S12" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T12" s="46" t="s">
+      <c r="T12" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="U12" s="45" t="s">
+      <c r="U12" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2035,17 +2068,29 @@
       <c r="L13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="N13" s="22"/>
       <c r="O13" s="15"/>
       <c r="P13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="44"/>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13" t="s">
+        <v>128</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="T13" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="U13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -2083,16 +2128,28 @@
         <v>8</v>
       </c>
       <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="N14" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="O14" s="15"/>
       <c r="P14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
+      <c r="Q14" s="39">
+        <v>6</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="T14" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -2137,19 +2194,19 @@
       <c r="P15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="37">
         <v>6</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="S15" s="45" t="s">
+      <c r="S15" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="T15" s="46" t="s">
+      <c r="T15" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="U15" s="45" t="s">
+      <c r="U15" s="37" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2196,19 +2253,19 @@
       <c r="P16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="37">
         <v>6</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S16" s="45" t="s">
+      <c r="S16" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T16" s="46" t="s">
+      <c r="T16" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="U16" s="45" t="s">
+      <c r="U16" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2239,11 +2296,11 @@
       <c r="N17" s="13"/>
       <c r="O17" s="15"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="44"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="36"/>
     </row>
     <row r="18" spans="1:21" ht="54" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -2288,19 +2345,19 @@
       <c r="P18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="37">
         <v>6</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S18" s="45" t="s">
+      <c r="S18" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T18" s="46" t="s">
+      <c r="T18" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="U18" s="45" t="s">
+      <c r="U18" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2347,19 +2404,19 @@
       <c r="P19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="37">
         <v>6</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="R19" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S19" s="45" t="s">
+      <c r="S19" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T19" s="46" t="s">
+      <c r="T19" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2406,19 +2463,19 @@
       <c r="P20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="37">
         <v>6</v>
       </c>
-      <c r="R20" s="45" t="s">
+      <c r="R20" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S20" s="45" t="s">
+      <c r="S20" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T20" s="46" t="s">
+      <c r="T20" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="U20" s="45" t="s">
+      <c r="U20" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2455,17 +2512,29 @@
       <c r="L21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="22"/>
+      <c r="M21" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="N21" s="22"/>
       <c r="O21" s="9"/>
       <c r="P21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>128</v>
+      </c>
+      <c r="S21" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="T21" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="U21" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -2494,11 +2563,11 @@
       <c r="N22" s="13"/>
       <c r="O22" s="9"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
     </row>
     <row r="23" spans="1:21" ht="54" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -2543,19 +2612,19 @@
       <c r="P23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="47">
+      <c r="Q23" s="39">
         <v>6</v>
       </c>
-      <c r="R23" s="47" t="s">
+      <c r="R23" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="S23" s="47" t="s">
+      <c r="S23" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="T23" s="48" t="s">
+      <c r="T23" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="U23" s="47" t="s">
+      <c r="U23" s="39" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2593,14 +2662,26 @@
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
+      <c r="N24" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="14"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="44"/>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24" t="s">
+        <v>128</v>
+      </c>
+      <c r="S24" t="s">
+        <v>127</v>
+      </c>
+      <c r="T24" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="U24" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="54" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
@@ -2645,19 +2726,19 @@
       <c r="P25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="45">
+      <c r="Q25" s="37">
         <v>6</v>
       </c>
-      <c r="R25" s="45" t="s">
+      <c r="R25" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S25" s="45" t="s">
+      <c r="S25" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T25" s="46" t="s">
+      <c r="T25" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2702,19 +2783,19 @@
       <c r="P26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="37">
         <v>6</v>
       </c>
-      <c r="R26" s="45" t="s">
+      <c r="R26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="S26" s="45" t="s">
+      <c r="S26" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="T26" s="46" t="s">
+      <c r="T26" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="U26" s="45" t="s">
+      <c r="U26" s="37" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2759,19 +2840,19 @@
       <c r="P27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="45">
+      <c r="Q27" s="37">
         <v>6</v>
       </c>
-      <c r="R27" s="45" t="s">
+      <c r="R27" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S27" s="45" t="s">
+      <c r="S27" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T27" s="46" t="s">
+      <c r="T27" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="U27" s="45" t="s">
+      <c r="U27" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2816,19 +2897,19 @@
       <c r="P28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="45">
+      <c r="Q28" s="37">
         <v>6</v>
       </c>
-      <c r="R28" s="45" t="s">
+      <c r="R28" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S28" s="45" t="s">
+      <c r="S28" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T28" s="46" t="s">
+      <c r="T28" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="U28" s="45" t="s">
+      <c r="U28" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2873,19 +2954,19 @@
       <c r="P29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="45">
+      <c r="Q29" s="37">
         <v>6</v>
       </c>
-      <c r="R29" s="45" t="s">
+      <c r="R29" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S29" s="45" t="s">
+      <c r="S29" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T29" s="46" t="s">
+      <c r="T29" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="U29" s="45" t="s">
+      <c r="U29" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2932,19 +3013,19 @@
       <c r="P30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="37">
         <v>6</v>
       </c>
-      <c r="R30" s="45" t="s">
+      <c r="R30" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S30" s="45" t="s">
+      <c r="S30" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T30" s="46" t="s">
+      <c r="T30" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="U30" s="45" t="s">
+      <c r="U30" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2987,19 +3068,19 @@
       <c r="P31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="45">
+      <c r="Q31" s="37">
         <v>6</v>
       </c>
-      <c r="R31" s="45" t="s">
+      <c r="R31" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S31" s="45" t="s">
+      <c r="S31" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T31" s="46" t="s">
+      <c r="T31" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="U31" s="45" t="s">
+      <c r="U31" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3042,19 +3123,19 @@
       <c r="P32" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="45">
+      <c r="Q32" s="37">
         <v>6</v>
       </c>
-      <c r="R32" s="45" t="s">
+      <c r="R32" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="S32" s="45" t="s">
+      <c r="S32" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="T32" s="46" t="s">
+      <c r="T32" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="U32" s="45" t="s">
+      <c r="U32" s="37" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3097,11 +3178,11 @@
       <c r="P33" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
     </row>
     <row r="34" spans="1:21" ht="72" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
@@ -3140,19 +3221,19 @@
       <c r="P34" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="45">
+      <c r="Q34" s="37">
         <v>6</v>
       </c>
-      <c r="R34" s="45" t="s">
+      <c r="R34" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S34" s="45" t="s">
+      <c r="S34" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T34" s="46" t="s">
+      <c r="T34" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="U34" s="45" t="s">
+      <c r="U34" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3191,19 +3272,19 @@
       <c r="P35" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="45">
+      <c r="Q35" s="37">
         <v>6</v>
       </c>
-      <c r="R35" s="45" t="s">
+      <c r="R35" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S35" s="45" t="s">
+      <c r="S35" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="T35" s="46" t="s">
+      <c r="T35" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="U35" s="45" t="s">
+      <c r="U35" s="37" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3559,6 +3640,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3573,12 +3660,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I41">
